--- a/biology/Zoologie/Gephyromantis_zavona/Gephyromantis_zavona.xlsx
+++ b/biology/Zoologie/Gephyromantis_zavona/Gephyromantis_zavona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis zavona est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis zavona est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 000 m d'altitude dans le nord-ouest de l'île, entre Tsaratanana et le massif du Manongarivo[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 000 m d'altitude dans le nord-ouest de l'île, entre Tsaratanana et le massif du Manongarivo,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 11 spécimens mâles adultes observés lors de la description originale mesurent entre 35,0 mm et 41,3 mm de longueur standard et les 3 spécimens femelles adultes observés lors de la description originale mesurent entre 40,5 mm et 44,0 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 11 spécimens mâles adultes observés lors de la description originale mesurent entre 35,0 mm et 41,3 mm de longueur standard et les 3 spécimens femelles adultes observés lors de la description originale mesurent entre 40,5 mm et 44,0 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, dérivant du mot zavona (prononcé zav-oana) dans un dialecte du Nord de l'île et signifiant « nuage », lui a été donné en référence aux conditions observées par l'équipe durant leur séjour. Le soleil ne brillait que tôt le matin puis était remplacé par un temps nuageux et pluvieux le reste de la journée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, dérivant du mot zavona (prononcé zav-oana) dans un dialecte du Nord de l'île et signifiant « nuage », lui a été donné en référence aux conditions observées par l'équipe durant leur séjour. Le soleil ne brillait que tôt le matin puis était remplacé par un temps nuageux et pluvieux le reste de la journée.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Andreone, Glaw &amp; Randrianirina, 2003 : Molecular and bioacoustic divergence in Mantidactylus granulatus and M. zavona n. sp. (Anura: Mantellidae): bearings for the biogeography of northern Madagascar. African Zoology, vol. 38, no 1, p. 67-78 (texte intégral).</t>
         </is>
